--- a/capiq_data/in_process_data/IQ24568.xlsx
+++ b/capiq_data/in_process_data/IQ24568.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4978D9-0CE7-4742-90EA-0DD4AEF9056F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFE828-D6EC-48A2-B4A9-30F52D69B34E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ea3aecaa-a2c1-4625-895d-107df2a5272c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"63bb6ba0-587c-4056-afcd-ae3833ce6d79"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>9.9049999999999994</v>
+        <v>-35.436999999999998</v>
       </c>
       <c r="D2">
-        <v>92.893000000000001</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="E2">
-        <v>65.430000000000007</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="F2">
-        <v>71.756</v>
+        <v>-5.4329999999999998</v>
       </c>
       <c r="G2">
-        <v>388.61099999999999</v>
+        <v>41.362000000000002</v>
       </c>
       <c r="H2">
-        <v>476.94299999999998</v>
+        <v>70.561000000000007</v>
       </c>
       <c r="I2">
-        <v>7.7679999999999998</v>
+        <v>5.5410000000000004</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>92.974000000000004</v>
+        <v>23.088999999999999</v>
       </c>
       <c r="O2">
-        <v>99.195999999999998</v>
+        <v>26.361999999999998</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Q2">
-        <v>29.74</v>
+        <v>-31.111999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2097</v>
+        <v>1065</v>
       </c>
       <c r="T2">
-        <v>377.74700000000001</v>
+        <v>44.198999999999998</v>
       </c>
       <c r="U2">
-        <v>294.66399999999999</v>
+        <v>2.8279999999999998</v>
       </c>
       <c r="V2">
-        <v>32.524999999999999</v>
+        <v>-27.64</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>4.6890000000000001</v>
+        <v>13.823</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="Z2">
-        <v>-2.476</v>
+        <v>-11.894</v>
       </c>
       <c r="AA2">
-        <v>9.9049999999999994</v>
+        <v>-35.436999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>15.840999999999999</v>
+        <v>-31.957999999999998</v>
       </c>
       <c r="D3">
-        <v>104.85599999999999</v>
+        <v>7.6890000000000001</v>
       </c>
       <c r="E3">
-        <v>73.903999999999996</v>
+        <v>6.718</v>
       </c>
       <c r="F3">
-        <v>82.225999999999999</v>
+        <v>-3.8650000000000002</v>
       </c>
       <c r="G3">
-        <v>417.94099999999997</v>
+        <v>136.167</v>
       </c>
       <c r="H3">
-        <v>496.98200000000003</v>
+        <v>171.55099999999999</v>
       </c>
       <c r="I3">
-        <v>6.5940000000000003</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -852,78 +972,78 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.111</v>
       </c>
       <c r="N3">
-        <v>87.994</v>
+        <v>22.530999999999999</v>
       </c>
       <c r="O3">
-        <v>94.876999999999995</v>
+        <v>23.867999999999999</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.7889999999999999</v>
       </c>
       <c r="Q3">
-        <v>13.944000000000001</v>
+        <v>53.777000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>402.10500000000002</v>
+        <v>147.68299999999999</v>
       </c>
       <c r="U3">
-        <v>308.608</v>
+        <v>56.604999999999997</v>
       </c>
       <c r="V3">
-        <v>17.248000000000001</v>
+        <v>-31.702000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3.7490000000000001</v>
+        <v>127.542</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="Z3">
-        <v>3.7669999999999999</v>
+        <v>-46.500999999999998</v>
       </c>
       <c r="AA3">
-        <v>15.840999999999999</v>
+        <v>-31.957999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>11.162000000000001</v>
+        <v>-22.294</v>
       </c>
       <c r="D4">
-        <v>120.086</v>
+        <v>13.483000000000001</v>
       </c>
       <c r="E4">
-        <v>82.13</v>
+        <v>9.875</v>
       </c>
       <c r="F4">
-        <v>91.137</v>
+        <v>-0.34699999999999998</v>
       </c>
       <c r="G4">
-        <v>286.57299999999998</v>
+        <v>108.51300000000001</v>
       </c>
       <c r="H4">
-        <v>547.04899999999998</v>
+        <v>148.21600000000001</v>
       </c>
       <c r="I4">
-        <v>10.407</v>
+        <v>0.626</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>109.45099999999999</v>
+        <v>15.58</v>
       </c>
       <c r="O4">
-        <v>117.267</v>
+        <v>16.806999999999999</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="Q4">
-        <v>-140.001</v>
+        <v>-17.103999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>429.78199999999998</v>
+        <v>131.40899999999999</v>
       </c>
       <c r="U4">
-        <v>168.607</v>
+        <v>39.500999999999998</v>
       </c>
       <c r="V4">
-        <v>29.696000000000002</v>
+        <v>-20.478999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>11.379</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="Z4">
-        <v>3.0920000000000001</v>
+        <v>5.0339999999999998</v>
       </c>
       <c r="AA4">
-        <v>11.162000000000001</v>
+        <v>-22.294</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>19.263999999999999</v>
+        <v>-22.503</v>
       </c>
       <c r="D5">
-        <v>125.89400000000001</v>
+        <v>12.912000000000001</v>
       </c>
       <c r="E5">
-        <v>86.647999999999996</v>
+        <v>9.3680000000000003</v>
       </c>
       <c r="F5">
-        <v>92.37</v>
+        <v>1.647</v>
       </c>
       <c r="G5">
-        <v>327.13400000000001</v>
+        <v>93.319000000000003</v>
       </c>
       <c r="H5">
-        <v>585.91999999999996</v>
+        <v>130.73699999999999</v>
       </c>
       <c r="I5">
-        <v>14.138</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>120.187</v>
+        <v>15.016</v>
       </c>
       <c r="O5">
-        <v>129.04400000000001</v>
+        <v>16.120999999999999</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="Q5">
-        <v>33.622</v>
+        <v>25.893000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>456.87599999999998</v>
+        <v>114.616</v>
       </c>
       <c r="U5">
-        <v>202.22900000000001</v>
+        <v>65.394000000000005</v>
       </c>
       <c r="V5">
-        <v>35.546999999999997</v>
+        <v>-13.404</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>9.2609999999999992</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.105</v>
       </c>
       <c r="Z5">
-        <v>1.9830000000000001</v>
+        <v>39.628</v>
       </c>
       <c r="AA5">
-        <v>19.263999999999999</v>
+        <v>-22.503</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>20.449000000000002</v>
+        <v>-20.719000000000001</v>
       </c>
       <c r="D6">
-        <v>128.905</v>
+        <v>12.3</v>
       </c>
       <c r="E6">
-        <v>91.537000000000006</v>
+        <v>11.555999999999999</v>
       </c>
       <c r="F6">
-        <v>96.75</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="G6">
-        <v>384.81599999999997</v>
+        <v>81.582999999999998</v>
       </c>
       <c r="H6">
-        <v>649.26400000000001</v>
+        <v>118.218</v>
       </c>
       <c r="I6">
-        <v>19.265000000000001</v>
+        <v>4.3760000000000003</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>148.11699999999999</v>
+        <v>17.835999999999999</v>
       </c>
       <c r="O6">
-        <v>158.483</v>
+        <v>18.815999999999999</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="Q6">
-        <v>38.445999999999998</v>
+        <v>-14.843999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2593</v>
+        <v>1093</v>
       </c>
       <c r="T6">
-        <v>490.78100000000001</v>
+        <v>99.402000000000001</v>
       </c>
       <c r="U6">
-        <v>240.67500000000001</v>
+        <v>50.55</v>
       </c>
       <c r="V6">
-        <v>47.978000000000002</v>
+        <v>-12.27</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>2.8519999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="Z6">
-        <v>1.4750000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="AA6">
-        <v>20.449000000000002</v>
+        <v>-20.719000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>20.984000000000002</v>
+        <v>-18.501999999999999</v>
       </c>
       <c r="D7">
-        <v>135.07900000000001</v>
+        <v>15.858000000000001</v>
       </c>
       <c r="E7">
-        <v>94.441000000000003</v>
+        <v>14.473000000000001</v>
       </c>
       <c r="F7">
-        <v>100.76</v>
+        <v>3.8340000000000001</v>
       </c>
       <c r="G7">
-        <v>385.49599999999998</v>
+        <v>70.537000000000006</v>
       </c>
       <c r="H7">
-        <v>670.43600000000004</v>
+        <v>104.32899999999999</v>
       </c>
       <c r="I7">
-        <v>14.64</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1184,78 +1304,78 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="N7">
-        <v>135.828</v>
+        <v>16.562000000000001</v>
       </c>
       <c r="O7">
-        <v>147.41399999999999</v>
+        <v>17.414999999999999</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="Q7">
-        <v>-16.314</v>
+        <v>-14.381</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>523.02200000000005</v>
+        <v>86.914000000000001</v>
       </c>
       <c r="U7">
-        <v>224.36099999999999</v>
+        <v>36.168999999999997</v>
       </c>
       <c r="V7">
-        <v>7.3810000000000002</v>
+        <v>-14.683</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>14.291</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="Z7">
-        <v>-25.439</v>
+        <v>2.1</v>
       </c>
       <c r="AA7">
-        <v>20.984000000000002</v>
+        <v>-19.303999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>28.492000000000001</v>
+        <v>-21.114999999999998</v>
       </c>
       <c r="D8">
-        <v>145.626</v>
+        <v>15.714</v>
       </c>
       <c r="E8">
-        <v>102.149</v>
+        <v>15.938000000000001</v>
       </c>
       <c r="F8">
-        <v>108.8</v>
+        <v>4.984</v>
       </c>
       <c r="G8">
-        <v>435.13499999999999</v>
+        <v>59.307000000000002</v>
       </c>
       <c r="H8">
-        <v>744.16300000000001</v>
+        <v>91.945999999999998</v>
       </c>
       <c r="I8">
-        <v>15.226000000000001</v>
+        <v>3.657</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>143.83600000000001</v>
+        <v>17.302</v>
       </c>
       <c r="O8">
-        <v>157.86799999999999</v>
+        <v>18.074999999999999</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="Q8">
-        <v>38.438000000000002</v>
+        <v>-9.0530000000000008</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>586.29499999999996</v>
+        <v>73.870999999999995</v>
       </c>
       <c r="U8">
-        <v>262.79899999999998</v>
+        <v>27.116</v>
       </c>
       <c r="V8">
-        <v>35.374000000000002</v>
+        <v>-11.714</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>21.992000000000001</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="Z8">
-        <v>-8.4160000000000004</v>
+        <v>4.47</v>
       </c>
       <c r="AA8">
-        <v>28.492000000000001</v>
+        <v>-20.312999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.34399999999999997</v>
+        <v>-17.806000000000001</v>
       </c>
       <c r="D9">
-        <v>136.49600000000001</v>
+        <v>17.375</v>
       </c>
       <c r="E9">
-        <v>105.902</v>
+        <v>16.071999999999999</v>
       </c>
       <c r="F9">
-        <v>100.35</v>
+        <v>6.7770000000000001</v>
       </c>
       <c r="G9">
-        <v>484.24599999999998</v>
+        <v>47.618000000000002</v>
       </c>
       <c r="H9">
-        <v>768.16399999999999</v>
+        <v>78.588999999999999</v>
       </c>
       <c r="I9">
-        <v>14.414999999999999</v>
+        <v>1.9410000000000001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>151.68799999999999</v>
+        <v>15.654</v>
       </c>
       <c r="O9">
-        <v>165.999</v>
+        <v>16.297999999999998</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="Q9">
-        <v>42.107999999999997</v>
+        <v>-10.37</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>602.16499999999996</v>
+        <v>62.290999999999997</v>
       </c>
       <c r="U9">
-        <v>304.90699999999998</v>
+        <v>16.745999999999999</v>
       </c>
       <c r="V9">
-        <v>40.265000000000001</v>
+        <v>-10.462999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>10.536</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="Z9">
-        <v>-2.6440000000000001</v>
+        <v>2.6269999999999998</v>
       </c>
       <c r="AA9">
-        <v>-0.34399999999999997</v>
+        <v>-17.806000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>9.5589999999999993</v>
+        <v>-15.396000000000001</v>
       </c>
       <c r="D10">
-        <v>142.84</v>
+        <v>20.751000000000001</v>
       </c>
       <c r="E10">
-        <v>98.992000000000004</v>
+        <v>16.765999999999998</v>
       </c>
       <c r="F10">
-        <v>107.27800000000001</v>
+        <v>9.7119999999999997</v>
       </c>
       <c r="G10">
-        <v>485.79300000000001</v>
+        <v>65.831999999999994</v>
       </c>
       <c r="H10">
-        <v>756.31200000000001</v>
+        <v>92.855999999999995</v>
       </c>
       <c r="I10">
-        <v>19.548999999999999</v>
+        <v>3.403</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>155.77099999999999</v>
+        <v>24.672000000000001</v>
       </c>
       <c r="O10">
-        <v>174.995</v>
+        <v>28.509</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="Q10">
-        <v>1.4790000000000001</v>
+        <v>18.806000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3176</v>
+        <v>608</v>
       </c>
       <c r="T10">
-        <v>581.31700000000001</v>
+        <v>64.346999999999994</v>
       </c>
       <c r="U10">
-        <v>306.38600000000002</v>
+        <v>35.552</v>
       </c>
       <c r="V10">
-        <v>50.758000000000003</v>
+        <v>-3.5390000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-36.613999999999997</v>
+        <v>23.335999999999999</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.504</v>
       </c>
       <c r="Z10">
-        <v>-5.8140000000000001</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="AA10">
-        <v>9.5589999999999993</v>
+        <v>-15.396000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-41.982999999999997</v>
+        <v>-10.670999999999999</v>
       </c>
       <c r="D11">
-        <v>150.08000000000001</v>
+        <v>22.96</v>
       </c>
       <c r="E11">
-        <v>108.672</v>
+        <v>17.077999999999999</v>
       </c>
       <c r="F11">
-        <v>112.849</v>
+        <v>11.036</v>
       </c>
       <c r="G11">
-        <v>527.33100000000002</v>
+        <v>63.783000000000001</v>
       </c>
       <c r="H11">
-        <v>726.245</v>
+        <v>89.662999999999997</v>
       </c>
       <c r="I11">
-        <v>19.748000000000001</v>
+        <v>2.0779999999999998</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.9169999999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.54100000000000004</v>
       </c>
       <c r="N11">
-        <v>143.85499999999999</v>
+        <v>19.907</v>
       </c>
       <c r="O11">
-        <v>165.12700000000001</v>
+        <v>23.248999999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5.4790000000000001</v>
       </c>
       <c r="Q11">
-        <v>22.359000000000002</v>
+        <v>-1.5549999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="T11">
-        <v>561.11800000000005</v>
+        <v>66.414000000000001</v>
       </c>
       <c r="U11">
-        <v>328.745</v>
+        <v>33.997</v>
       </c>
       <c r="V11">
-        <v>10.417999999999999</v>
+        <v>-3.2469999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>15.423</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="Z11">
-        <v>1.0840000000000001</v>
+        <v>2.669</v>
       </c>
       <c r="AA11">
-        <v>-41.982999999999997</v>
+        <v>-10.670999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>29.32</v>
+        <v>-7.7590000000000003</v>
       </c>
       <c r="D12">
-        <v>162.02799999999999</v>
+        <v>29.225000000000001</v>
       </c>
       <c r="E12">
-        <v>112.367</v>
+        <v>18.573</v>
       </c>
       <c r="F12">
-        <v>123.691</v>
+        <v>15.956</v>
       </c>
       <c r="G12">
-        <v>442.09300000000002</v>
+        <v>65.763999999999996</v>
       </c>
       <c r="H12">
-        <v>703.89400000000001</v>
+        <v>91.795000000000002</v>
       </c>
       <c r="I12">
-        <v>21.556000000000001</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>160.654</v>
+        <v>33.185000000000002</v>
       </c>
       <c r="O12">
-        <v>183.696</v>
+        <v>36.030999999999999</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="Q12">
-        <v>-164.24799999999999</v>
+        <v>-2.282</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="T12">
-        <v>520.19799999999998</v>
+        <v>55.764000000000003</v>
       </c>
       <c r="U12">
-        <v>164.49700000000001</v>
+        <v>31.715</v>
       </c>
       <c r="V12">
-        <v>53.308</v>
+        <v>3.8069999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-77.319000000000003</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="Z12">
-        <v>-128.72999999999999</v>
+        <v>-3.3919999999999999</v>
       </c>
       <c r="AA12">
-        <v>29.32</v>
+        <v>-7.7590000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>34.536999999999999</v>
+        <v>-2.1440000000000001</v>
       </c>
       <c r="D13">
-        <v>164.506</v>
+        <v>34.037999999999997</v>
       </c>
       <c r="E13">
-        <v>109.179</v>
+        <v>20.794</v>
       </c>
       <c r="F13">
-        <v>125.09</v>
+        <v>20.591999999999999</v>
       </c>
       <c r="G13">
-        <v>482.25900000000001</v>
+        <v>71.558999999999997</v>
       </c>
       <c r="H13">
-        <v>759.20600000000002</v>
+        <v>95.85</v>
       </c>
       <c r="I13">
-        <v>19.157</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>163.268</v>
+        <v>35.414999999999999</v>
       </c>
       <c r="O13">
-        <v>183.52199999999999</v>
+        <v>37.762999999999998</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="Q13">
-        <v>11.342000000000001</v>
+        <v>5.5350000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="T13">
-        <v>575.68399999999997</v>
+        <v>58.087000000000003</v>
       </c>
       <c r="U13">
-        <v>175.839</v>
+        <v>37.25</v>
       </c>
       <c r="V13">
-        <v>55.137999999999998</v>
+        <v>4.3330000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>12.994</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="Z13">
-        <v>-47.171999999999997</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="AA13">
-        <v>34.536999999999999</v>
+        <v>-2.1440000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>42.420999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D14">
-        <v>176.49199999999999</v>
+        <v>36.502000000000002</v>
       </c>
       <c r="E14">
-        <v>113.25</v>
+        <v>21.265000000000001</v>
       </c>
       <c r="F14">
-        <v>136.476</v>
+        <v>23.576000000000001</v>
       </c>
       <c r="G14">
-        <v>544.67600000000004</v>
+        <v>77.114000000000004</v>
       </c>
       <c r="H14">
-        <v>832.14700000000005</v>
+        <v>102.202</v>
       </c>
       <c r="I14">
-        <v>17.718</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>175.33799999999999</v>
+        <v>37.377000000000002</v>
       </c>
       <c r="O14">
-        <v>198.17699999999999</v>
+        <v>39.225999999999999</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="Q14">
-        <v>67.114000000000004</v>
+        <v>7.6890000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3420</v>
+        <v>741</v>
       </c>
       <c r="T14">
-        <v>633.97</v>
+        <v>62.975999999999999</v>
       </c>
       <c r="U14">
-        <v>242.953</v>
+        <v>44.939</v>
       </c>
       <c r="V14">
-        <v>67.111999999999995</v>
+        <v>7.2290000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>10.731</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-6.4409999999999998</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="AA14">
-        <v>42.420999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>32.444000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D15">
-        <v>180.64599999999999</v>
+        <v>39.204999999999998</v>
       </c>
       <c r="E15">
-        <v>126.18300000000001</v>
+        <v>23.256</v>
       </c>
       <c r="F15">
-        <v>137.251</v>
+        <v>25.812000000000001</v>
       </c>
       <c r="G15">
-        <v>552.17700000000002</v>
+        <v>79.111999999999995</v>
       </c>
       <c r="H15">
-        <v>885.64099999999996</v>
+        <v>103.70399999999999</v>
       </c>
       <c r="I15">
-        <v>18.506</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-0.496</v>
       </c>
       <c r="N15">
-        <v>170.85499999999999</v>
+        <v>33.584000000000003</v>
       </c>
       <c r="O15">
-        <v>188.88800000000001</v>
+        <v>34.932000000000002</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.3420000000000001</v>
       </c>
       <c r="Q15">
-        <v>-60.186999999999998</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="T15">
-        <v>696.75300000000004</v>
+        <v>68.772000000000006</v>
       </c>
       <c r="U15">
-        <v>182.76599999999999</v>
+        <v>47.816000000000003</v>
       </c>
       <c r="V15">
-        <v>17.992999999999999</v>
+        <v>-0.25600000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>21.061</v>
+        <v>2.528</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="Z15">
-        <v>-94.218000000000004</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="AA15">
-        <v>32.444000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>35.6</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="D16">
-        <v>192.53100000000001</v>
+        <v>44.204000000000001</v>
       </c>
       <c r="E16">
-        <v>131.02799999999999</v>
+        <v>25.736999999999998</v>
       </c>
       <c r="F16">
-        <v>145.476</v>
+        <v>29.954000000000001</v>
       </c>
       <c r="G16">
-        <v>554.51199999999994</v>
+        <v>89.867999999999995</v>
       </c>
       <c r="H16">
-        <v>885.43299999999999</v>
+        <v>114.956</v>
       </c>
       <c r="I16">
-        <v>20.939</v>
+        <v>3.3140000000000001</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>187.113</v>
+        <v>37.856000000000002</v>
       </c>
       <c r="O16">
-        <v>209.637</v>
+        <v>38.786999999999999</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.8450000000000002</v>
       </c>
       <c r="Q16">
-        <v>-15.295</v>
+        <v>8.2829999999999995</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="T16">
-        <v>675.79600000000005</v>
+        <v>76.168999999999997</v>
       </c>
       <c r="U16">
-        <v>167.471</v>
+        <v>56.098999999999997</v>
       </c>
       <c r="V16">
-        <v>69.73</v>
+        <v>9.2349999999999994</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-66.927999999999997</v>
+        <v>1.351</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-13.272</v>
+        <v>0.08</v>
       </c>
       <c r="AA16">
-        <v>35.6</v>
+        <v>3.7719999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>38.247</v>
+        <v>3.3180000000000001</v>
       </c>
       <c r="D17">
-        <v>189.876</v>
+        <v>45.765999999999998</v>
       </c>
       <c r="E17">
-        <v>130.047</v>
+        <v>27.663</v>
       </c>
       <c r="F17">
-        <v>145.054</v>
+        <v>30.844000000000001</v>
       </c>
       <c r="G17">
-        <v>615.67200000000003</v>
+        <v>99.683000000000007</v>
       </c>
       <c r="H17">
-        <v>948.28899999999999</v>
+        <v>125.184</v>
       </c>
       <c r="I17">
-        <v>24.516999999999999</v>
+        <v>3.899</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,75 +2137,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>198.56</v>
+        <v>41.362000000000002</v>
       </c>
       <c r="O17">
-        <v>225.833</v>
+        <v>41.79</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Q17">
-        <v>13.205</v>
+        <v>7.1159999999999997</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="T17">
-        <v>722.45600000000002</v>
+        <v>83.394000000000005</v>
       </c>
       <c r="U17">
-        <v>180.67599999999999</v>
+        <v>63.215000000000003</v>
       </c>
       <c r="V17">
-        <v>67.570999999999998</v>
+        <v>8.51</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-1.0509999999999999</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-46.744</v>
+        <v>-0.51900000000000002</v>
       </c>
       <c r="AA17">
-        <v>38.247</v>
+        <v>3.3180000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>39.540999999999997</v>
+        <v>1.121</v>
       </c>
       <c r="D18">
-        <v>198.6</v>
+        <v>43.655000000000001</v>
       </c>
       <c r="E18">
-        <v>129.751</v>
+        <v>28.809000000000001</v>
       </c>
       <c r="F18">
-        <v>150.66200000000001</v>
+        <v>28.693999999999999</v>
       </c>
       <c r="G18">
-        <v>657.16</v>
+        <v>106.834</v>
       </c>
       <c r="H18">
-        <v>987.99699999999996</v>
+        <v>130.71199999999999</v>
       </c>
       <c r="I18">
-        <v>23.247</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>201.81100000000001</v>
+        <v>44.948</v>
       </c>
       <c r="O18">
-        <v>235.226</v>
+        <v>44.972999999999999</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.849</v>
       </c>
       <c r="Q18">
-        <v>19.195</v>
+        <v>6.444</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3580</v>
+        <v>969</v>
       </c>
       <c r="T18">
-        <v>752.77099999999996</v>
+        <v>85.739000000000004</v>
       </c>
       <c r="U18">
-        <v>199.87100000000001</v>
+        <v>69.659000000000006</v>
       </c>
       <c r="V18">
-        <v>71.605000000000004</v>
+        <v>7.109</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-19.501999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-23.117999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="AA18">
-        <v>39.540999999999997</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>36.177</v>
+        <v>1.863</v>
       </c>
       <c r="D19">
-        <v>198.08600000000001</v>
+        <v>51.155000000000001</v>
       </c>
       <c r="E19">
-        <v>138.15899999999999</v>
+        <v>31.875</v>
       </c>
       <c r="F19">
-        <v>151.09</v>
+        <v>35.677</v>
       </c>
       <c r="G19">
-        <v>657.31200000000001</v>
+        <v>110.92700000000001</v>
       </c>
       <c r="H19">
-        <v>1028.405</v>
+        <v>136.67099999999999</v>
       </c>
       <c r="I19">
-        <v>24.995999999999999</v>
+        <v>3.0179999999999998</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2177,81 +2297,81 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>200.57499999999999</v>
+        <v>45.93</v>
       </c>
       <c r="O19">
-        <v>234.87100000000001</v>
+        <v>45.965000000000003</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.349</v>
       </c>
       <c r="Q19">
-        <v>-9.8930000000000007</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="T19">
-        <v>793.53399999999999</v>
+        <v>90.706000000000003</v>
       </c>
       <c r="U19">
-        <v>189.97800000000001</v>
+        <v>68.988</v>
       </c>
       <c r="V19">
-        <v>35.645000000000003</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-7.0970000000000004</v>
+        <v>2.097</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-21.094999999999999</v>
+        <v>-0.25</v>
       </c>
       <c r="AA19">
-        <v>36.177</v>
+        <v>1.863</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>31.35</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D20">
-        <v>209.488</v>
+        <v>53.94</v>
       </c>
       <c r="E20">
-        <v>146.46600000000001</v>
+        <v>35.207000000000001</v>
       </c>
       <c r="F20">
-        <v>158.63399999999999</v>
+        <v>37.32</v>
       </c>
       <c r="G20">
-        <v>657.90599999999995</v>
+        <v>119.605</v>
       </c>
       <c r="H20">
-        <v>1028.5809999999999</v>
+        <v>145.23500000000001</v>
       </c>
       <c r="I20">
-        <v>29.513000000000002</v>
+        <v>4.2560000000000002</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>222.92500000000001</v>
+        <v>53.322000000000003</v>
       </c>
       <c r="O20">
-        <v>258.77999999999997</v>
+        <v>53.365000000000002</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="Q20">
-        <v>-28.225000000000001</v>
+        <v>4.0259999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="T20">
-        <v>769.80100000000004</v>
+        <v>91.87</v>
       </c>
       <c r="U20">
-        <v>161.75299999999999</v>
+        <v>73.013999999999996</v>
       </c>
       <c r="V20">
-        <v>62.94</v>
+        <v>6.5519999999999996</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-67.83</v>
+        <v>0.06</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-13.101000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AA20">
-        <v>31.35</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>27.616</v>
+        <v>-1.516</v>
       </c>
       <c r="D21">
-        <v>207.636</v>
+        <v>50.866</v>
       </c>
       <c r="E21">
-        <v>148.39500000000001</v>
+        <v>29.155000000000001</v>
       </c>
       <c r="F21">
-        <v>157.57599999999999</v>
+        <v>35.890999999999998</v>
       </c>
       <c r="G21">
-        <v>711.73299999999995</v>
+        <v>117.39700000000001</v>
       </c>
       <c r="H21">
-        <v>1079.5619999999999</v>
+        <v>145.01400000000001</v>
       </c>
       <c r="I21">
-        <v>32.598999999999997</v>
+        <v>3.653</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>244.511</v>
+        <v>52.645000000000003</v>
       </c>
       <c r="O21">
-        <v>281.303</v>
+        <v>52.698999999999998</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="Q21">
-        <v>12.287000000000001</v>
+        <v>4.34</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="T21">
-        <v>798.25900000000001</v>
+        <v>92.314999999999998</v>
       </c>
       <c r="U21">
-        <v>174.04</v>
+        <v>77.353999999999999</v>
       </c>
       <c r="V21">
-        <v>60.057000000000002</v>
+        <v>8.9659999999999993</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-14.028</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-21.812000000000001</v>
+        <v>-1.99</v>
       </c>
       <c r="AA21">
-        <v>27.616</v>
+        <v>-1.516</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>48.877000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D22">
-        <v>230.27600000000001</v>
+        <v>51.164000000000001</v>
       </c>
       <c r="E22">
-        <v>158.55000000000001</v>
+        <v>29.305</v>
       </c>
       <c r="F22">
-        <v>172.81</v>
+        <v>34.453000000000003</v>
       </c>
       <c r="G22">
-        <v>732.01</v>
+        <v>111.586</v>
       </c>
       <c r="H22">
-        <v>1158.633</v>
+        <v>142.11000000000001</v>
       </c>
       <c r="I22">
-        <v>34.353999999999999</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>271.67200000000003</v>
+        <v>48.607999999999997</v>
       </c>
       <c r="O22">
-        <v>310.70699999999999</v>
+        <v>48.671999999999997</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>-6.3259999999999996</v>
+        <v>-3.1349999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>4375</v>
+        <v>1097</v>
       </c>
       <c r="T22">
-        <v>847.92600000000004</v>
+        <v>93.438000000000002</v>
       </c>
       <c r="U22">
-        <v>167.714</v>
+        <v>74.218999999999994</v>
       </c>
       <c r="V22">
-        <v>79.355000000000004</v>
+        <v>-0.93200000000000005</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-11.831</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-56.948</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AA22">
-        <v>48.877000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>40.545999999999999</v>
+        <v>-4.7640000000000002</v>
       </c>
       <c r="D23">
-        <v>238.72</v>
+        <v>48.908000000000001</v>
       </c>
       <c r="E23">
-        <v>178</v>
+        <v>32.057000000000002</v>
       </c>
       <c r="F23">
-        <v>180.62700000000001</v>
+        <v>34.610999999999997</v>
       </c>
       <c r="G23">
-        <v>783.00300000000004</v>
+        <v>113.532</v>
       </c>
       <c r="H23">
-        <v>1207.56</v>
+        <v>144.988</v>
       </c>
       <c r="I23">
-        <v>36.258000000000003</v>
+        <v>2.8919999999999999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2635,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>274.75</v>
+        <v>48.558999999999997</v>
       </c>
       <c r="O23">
-        <v>315.52999999999997</v>
+        <v>48.811</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-13.295999999999999</v>
+        <v>-2.4359999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="T23">
-        <v>892.03</v>
+        <v>96.177000000000007</v>
       </c>
       <c r="U23">
-        <v>154.41800000000001</v>
+        <v>71.783000000000001</v>
       </c>
       <c r="V23">
-        <v>30.68</v>
+        <v>-5.62</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-9.1059999999999999</v>
+        <v>5.2990000000000004</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-15.109</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>40.545999999999999</v>
+        <v>-4.7640000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>50.148000000000003</v>
+        <v>-2.61</v>
       </c>
       <c r="D24">
-        <v>269.36200000000002</v>
+        <v>53.220999999999997</v>
       </c>
       <c r="E24">
-        <v>192.66</v>
+        <v>32.79</v>
       </c>
       <c r="F24">
-        <v>205.21600000000001</v>
+        <v>36.728999999999999</v>
       </c>
       <c r="G24">
-        <v>825.40700000000004</v>
+        <v>111.923</v>
       </c>
       <c r="H24">
-        <v>1251.2729999999999</v>
+        <v>141.75700000000001</v>
       </c>
       <c r="I24">
-        <v>30.927</v>
+        <v>4.8129999999999997</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>298.98899999999998</v>
+        <v>44.662999999999997</v>
       </c>
       <c r="O24">
-        <v>341.41500000000002</v>
+        <v>45.042000000000002</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.288</v>
+        <v>-14.297000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="T24">
-        <v>909.85799999999995</v>
+        <v>96.715000000000003</v>
       </c>
       <c r="U24">
-        <v>167.70599999999999</v>
+        <v>57.485999999999997</v>
       </c>
       <c r="V24">
-        <v>76.167000000000002</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-46.402000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>8.6620000000000008</v>
+        <v>-12.282</v>
       </c>
       <c r="AA24">
-        <v>50.148000000000003</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>51.366999999999997</v>
+        <v>-10.32</v>
       </c>
       <c r="D25">
-        <v>278.589</v>
+        <v>49.033999999999999</v>
       </c>
       <c r="E25">
-        <v>244.99199999999999</v>
+        <v>32.606999999999999</v>
       </c>
       <c r="F25">
-        <v>209.202</v>
+        <v>32.244999999999997</v>
       </c>
       <c r="G25">
-        <v>911.76800000000003</v>
+        <v>126.664</v>
       </c>
       <c r="H25">
-        <v>1358.893</v>
+        <v>156.89099999999999</v>
       </c>
       <c r="I25">
-        <v>33.103999999999999</v>
+        <v>7.1369999999999996</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>343.05099999999999</v>
+        <v>66.171000000000006</v>
       </c>
       <c r="O25">
-        <v>386.58300000000003</v>
+        <v>66.466999999999999</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q25">
-        <v>252.24199999999999</v>
+        <v>16.547999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="T25">
-        <v>972.31</v>
+        <v>90.424000000000007</v>
       </c>
       <c r="U25">
-        <v>419.94799999999998</v>
+        <v>74.034000000000006</v>
       </c>
       <c r="V25">
-        <v>59.826999999999998</v>
+        <v>2.113</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-2.1110000000000002</v>
+        <v>16.741</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>213.70500000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="AA25">
-        <v>51.366999999999997</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>47.621000000000002</v>
+        <v>-17.268999999999998</v>
       </c>
       <c r="D26">
-        <v>293.20299999999997</v>
+        <v>55.191000000000003</v>
       </c>
       <c r="E26">
-        <v>247.41499999999999</v>
+        <v>33.634999999999998</v>
       </c>
       <c r="F26">
-        <v>220.249</v>
+        <v>37.994</v>
       </c>
       <c r="G26">
-        <v>952.97799999999995</v>
+        <v>108.089</v>
       </c>
       <c r="H26">
-        <v>1396.1510000000001</v>
+        <v>151.55799999999999</v>
       </c>
       <c r="I26">
-        <v>28.596</v>
+        <v>5.0339999999999998</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,158 +2884,158 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>354.33499999999998</v>
+        <v>67.783000000000001</v>
       </c>
       <c r="O26">
-        <v>400.762</v>
+        <v>68.001999999999995</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Q26">
-        <v>-30.672999999999998</v>
+        <v>-18.920999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>6060</v>
+        <v>1253</v>
       </c>
       <c r="T26">
-        <v>995.38900000000001</v>
+        <v>83.555999999999997</v>
       </c>
       <c r="U26">
-        <v>389.27499999999998</v>
+        <v>55.113</v>
       </c>
       <c r="V26">
-        <v>80.98</v>
+        <v>-9.7609999999999992</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-37.905000000000001</v>
+        <v>4.74</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-55.622999999999998</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="AA26">
-        <v>47.621000000000002</v>
+        <v>-17.268999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>69.42</v>
+        <v>6.9779999999999998</v>
       </c>
       <c r="D27">
-        <v>310.34100000000001</v>
+        <v>63.761000000000003</v>
       </c>
       <c r="E27">
-        <v>267.12799999999999</v>
+        <v>38.203000000000003</v>
       </c>
       <c r="F27">
-        <v>235.625</v>
+        <v>46.231999999999999</v>
       </c>
       <c r="G27">
-        <v>918.16700000000003</v>
+        <v>115.24</v>
       </c>
       <c r="H27">
-        <v>1459.2929999999999</v>
+        <v>157.03899999999999</v>
       </c>
       <c r="I27">
-        <v>37.027999999999999</v>
+        <v>6.7610000000000001</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>365.55399999999997</v>
+        <v>57.817999999999998</v>
       </c>
       <c r="O27">
-        <v>414.41800000000001</v>
+        <v>58.051000000000002</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q27">
-        <v>-131.41200000000001</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="T27">
-        <v>1044.875</v>
+        <v>98.988</v>
       </c>
       <c r="U27">
-        <v>261.02699999999999</v>
+        <v>56.209000000000003</v>
       </c>
       <c r="V27">
-        <v>47.621000000000002</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-33.000999999999998</v>
+        <v>2.3370000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-71.09</v>
+        <v>-0.45300000000000001</v>
       </c>
       <c r="AA27">
-        <v>69.42</v>
+        <v>6.9779999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>69.179000000000002</v>
+        <v>13.618</v>
       </c>
       <c r="D28">
-        <v>356.48200000000003</v>
+        <v>76.602999999999994</v>
       </c>
       <c r="E28">
-        <v>291.69400000000002</v>
+        <v>47.237000000000002</v>
       </c>
       <c r="F28">
-        <v>270.91699999999997</v>
+        <v>56.356000000000002</v>
       </c>
       <c r="G28">
-        <v>1003.222</v>
+        <v>138.42500000000001</v>
       </c>
       <c r="H28">
-        <v>1551.1869999999999</v>
+        <v>182.35499999999999</v>
       </c>
       <c r="I28">
-        <v>45.953000000000003</v>
+        <v>5.7279999999999998</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,75 +3050,75 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>424.79599999999999</v>
+        <v>53.835999999999999</v>
       </c>
       <c r="O28">
-        <v>472.899</v>
+        <v>54.024999999999999</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>97.182000000000002</v>
+        <v>9.3829999999999991</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="T28">
-        <v>1078.288</v>
+        <v>128.33000000000001</v>
       </c>
       <c r="U28">
-        <v>358.18200000000002</v>
+        <v>65.593999999999994</v>
       </c>
       <c r="V28">
-        <v>110.467</v>
+        <v>12.97</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-51.238999999999997</v>
+        <v>4.7910000000000004</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>64.31</v>
+        <v>-6.9530000000000003</v>
       </c>
       <c r="AA28">
-        <v>69.179000000000002</v>
+        <v>13.618</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>82.555000000000007</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D29">
-        <v>385.267</v>
+        <v>71.450999999999993</v>
       </c>
       <c r="E29">
-        <v>321.32799999999997</v>
+        <v>46.002000000000002</v>
       </c>
       <c r="F29">
-        <v>292.488</v>
+        <v>53.319000000000003</v>
       </c>
       <c r="G29">
-        <v>1101.0029999999999</v>
+        <v>167.14699999999999</v>
       </c>
       <c r="H29">
-        <v>1697.623</v>
+        <v>206.89400000000001</v>
       </c>
       <c r="I29">
-        <v>45.942</v>
+        <v>6.3440000000000003</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3133,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>461.36900000000003</v>
+        <v>55.991999999999997</v>
       </c>
       <c r="O29">
-        <v>515.66499999999996</v>
+        <v>56.186999999999998</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4.4290000000000003</v>
+        <v>22.375</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="T29">
-        <v>1181.9580000000001</v>
+        <v>150.70699999999999</v>
       </c>
       <c r="U29">
-        <v>362.613</v>
+        <v>87.968999999999994</v>
       </c>
       <c r="V29">
-        <v>118.125</v>
+        <v>22.076000000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>5.2039999999999997</v>
+        <v>9.1549999999999994</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-70.134</v>
+        <v>-5.69</v>
       </c>
       <c r="AA29">
-        <v>82.555000000000007</v>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>10.263999999999999</v>
+        <v>5.6680000000000001</v>
       </c>
       <c r="D30">
-        <v>421.32299999999998</v>
+        <v>72.516999999999996</v>
       </c>
       <c r="E30">
-        <v>324.18900000000002</v>
+        <v>44.85</v>
       </c>
       <c r="F30">
-        <v>317.91699999999997</v>
+        <v>53.39</v>
       </c>
       <c r="G30">
-        <v>1158.367</v>
+        <v>184.517</v>
       </c>
       <c r="H30">
-        <v>1784.009</v>
+        <v>222.761</v>
       </c>
       <c r="I30">
-        <v>36.776000000000003</v>
+        <v>9.2219999999999995</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3216,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>500.05099999999999</v>
+        <v>61.459000000000003</v>
       </c>
       <c r="O30">
-        <v>629.721</v>
+        <v>61.606999999999999</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>86.906999999999996</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>8715</v>
+        <v>1307</v>
       </c>
       <c r="T30">
-        <v>1154.288</v>
+        <v>161.154</v>
       </c>
       <c r="U30">
-        <v>449.51100000000002</v>
+        <v>89.119</v>
       </c>
       <c r="V30">
-        <v>162.32599999999999</v>
+        <v>16.994</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-56.463999999999999</v>
+        <v>1.226</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>62.682000000000002</v>
+        <v>-16.792999999999999</v>
       </c>
       <c r="AA30">
-        <v>10.263999999999999</v>
+        <v>5.6680000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>95.866</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="D31">
-        <v>436.92399999999998</v>
+        <v>74.775999999999996</v>
       </c>
       <c r="E31">
-        <v>361.459</v>
+        <v>47.475000000000001</v>
       </c>
       <c r="F31">
-        <v>327.40800000000002</v>
+        <v>55.167999999999999</v>
       </c>
       <c r="G31">
-        <v>1168.7760000000001</v>
+        <v>191.15</v>
       </c>
       <c r="H31">
-        <v>1782.731</v>
+        <v>231.05</v>
       </c>
       <c r="I31">
-        <v>41.881</v>
+        <v>10.1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>517.98500000000001</v>
+        <v>53.957999999999998</v>
       </c>
       <c r="O31">
-        <v>655.27099999999996</v>
+        <v>54.116999999999997</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48.494</v>
+        <v>24.54</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="T31">
-        <v>1127.46</v>
+        <v>176.93299999999999</v>
       </c>
       <c r="U31">
-        <v>498.00299999999999</v>
+        <v>113.68</v>
       </c>
       <c r="V31">
-        <v>77.331999999999994</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-139.822</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>136.38499999999999</v>
+        <v>20.134</v>
       </c>
       <c r="AA31">
-        <v>95.866</v>
+        <v>5.3040000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>106.105</v>
+        <v>4.03</v>
       </c>
       <c r="D32">
-        <v>490.25900000000001</v>
+        <v>79.902000000000001</v>
       </c>
       <c r="E32">
-        <v>374.37099999999998</v>
+        <v>51.173000000000002</v>
       </c>
       <c r="F32">
-        <v>365.58199999999999</v>
+        <v>59.658999999999999</v>
       </c>
       <c r="G32">
-        <v>1260.999</v>
+        <v>174.38399999999999</v>
       </c>
       <c r="H32">
-        <v>1916.5889999999999</v>
+        <v>217.16900000000001</v>
       </c>
       <c r="I32">
-        <v>48.744</v>
+        <v>8.9649999999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3382,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>566.64599999999996</v>
+        <v>57.817</v>
       </c>
       <c r="O32">
-        <v>697.63</v>
+        <v>57.95</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49.962000000000003</v>
+        <v>-49.341000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1218.9590000000001</v>
+        <v>159.21899999999999</v>
       </c>
       <c r="U32">
-        <v>547.99300000000005</v>
+        <v>64.338999999999999</v>
       </c>
       <c r="V32">
-        <v>139.78899999999999</v>
+        <v>10.47</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-30.922999999999998</v>
+        <v>-26.439</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>2.2450000000000001</v>
+        <v>-28.972999999999999</v>
       </c>
       <c r="AA32">
-        <v>106.105</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>100.872</v>
+        <v>5.157</v>
       </c>
       <c r="D33">
-        <v>505.28899999999999</v>
+        <v>75.173000000000002</v>
       </c>
       <c r="E33">
-        <v>420.27600000000001</v>
+        <v>48.872</v>
       </c>
       <c r="F33">
-        <v>371.78100000000001</v>
+        <v>56.406999999999996</v>
       </c>
       <c r="G33">
-        <v>1224.182</v>
+        <v>173.554</v>
       </c>
       <c r="H33">
-        <v>1928.405</v>
+        <v>216.52</v>
       </c>
       <c r="I33">
-        <v>43.064999999999998</v>
+        <v>7.4850000000000003</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3465,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>618.20899999999995</v>
+        <v>56.741999999999997</v>
       </c>
       <c r="O33">
-        <v>735.42200000000003</v>
+        <v>56.866</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>-127.13200000000001</v>
+        <v>15.417</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1192.9829999999999</v>
+        <v>159.654</v>
       </c>
       <c r="U33">
-        <v>420.86</v>
+        <v>79.756</v>
       </c>
       <c r="V33">
-        <v>96.265000000000001</v>
+        <v>17.359000000000002</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-144.40600000000001</v>
+        <v>-9.3230000000000004</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-24.222000000000001</v>
+        <v>10.208</v>
       </c>
       <c r="AA33">
-        <v>100.872</v>
+        <v>5.157</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>97.391999999999996</v>
+        <v>65.495999999999995</v>
       </c>
       <c r="D34">
-        <v>534.02</v>
+        <v>74.125</v>
       </c>
       <c r="E34">
-        <v>439.00900000000001</v>
+        <v>52.362000000000002</v>
       </c>
       <c r="F34">
-        <v>383.096</v>
+        <v>53.892000000000003</v>
       </c>
       <c r="G34">
-        <v>1302.479</v>
+        <v>177.90700000000001</v>
       </c>
       <c r="H34">
-        <v>2052.4580000000001</v>
+        <v>279.34100000000001</v>
       </c>
       <c r="I34">
-        <v>64.256</v>
+        <v>5.58</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3548,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>692.07299999999998</v>
+        <v>60.572000000000003</v>
       </c>
       <c r="O34">
-        <v>799.56700000000001</v>
+        <v>60.801000000000002</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>216.11699999999999</v>
+        <v>7.3650000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>11660</v>
+        <v>1394</v>
       </c>
       <c r="T34">
-        <v>1252.8910000000001</v>
+        <v>218.54</v>
       </c>
       <c r="U34">
-        <v>636.899</v>
+        <v>87.1</v>
       </c>
       <c r="V34">
-        <v>241.29499999999999</v>
+        <v>8.7550000000000008</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-54.283000000000001</v>
+        <v>-10.715</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>85.066000000000003</v>
+        <v>11.507</v>
       </c>
       <c r="AA34">
-        <v>97.391999999999996</v>
+        <v>65.495999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>71.847999999999999</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="D35">
-        <v>548.971</v>
+        <v>70.132000000000005</v>
       </c>
       <c r="E35">
-        <v>479.28100000000001</v>
+        <v>51.664999999999999</v>
       </c>
       <c r="F35">
-        <v>402.096</v>
+        <v>52.707000000000001</v>
       </c>
       <c r="G35">
-        <v>1439.1130000000001</v>
+        <v>193.005</v>
       </c>
       <c r="H35">
-        <v>2234.4299999999998</v>
+        <v>289.27699999999999</v>
       </c>
       <c r="I35">
-        <v>62.512</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3505,81 +3625,81 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>804.88400000000001</v>
+        <v>61.374000000000002</v>
       </c>
       <c r="O35">
-        <v>978.726</v>
+        <v>61.578000000000003</v>
       </c>
       <c r="P35">
-        <v>130.999</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-48.884</v>
+        <v>9.9510000000000005</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1255.704</v>
+        <v>227.69900000000001</v>
       </c>
       <c r="U35">
-        <v>588.00099999999998</v>
+        <v>97.051000000000002</v>
       </c>
       <c r="V35">
-        <v>117.20699999999999</v>
+        <v>10.603</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-92.762</v>
+        <v>3.0089999999999999</v>
       </c>
       <c r="Y35">
-        <v>59.307000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-36.79</v>
+        <v>-1.6839999999999999</v>
       </c>
       <c r="AA35">
-        <v>71.847999999999999</v>
+        <v>2.6360000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>147.142</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="D36">
-        <v>600.697</v>
+        <v>76.316000000000003</v>
       </c>
       <c r="E36">
-        <v>520.09400000000005</v>
+        <v>53.235999999999997</v>
       </c>
       <c r="F36">
-        <v>432.28899999999999</v>
+        <v>57.978000000000002</v>
       </c>
       <c r="G36">
-        <v>1457.374</v>
+        <v>213.74799999999999</v>
       </c>
       <c r="H36">
-        <v>2346.0169999999998</v>
+        <v>307.79399999999998</v>
       </c>
       <c r="I36">
-        <v>61.95</v>
+        <v>6.4729999999999999</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3714,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>789.04600000000005</v>
+        <v>69.811000000000007</v>
       </c>
       <c r="O36">
-        <v>972.33500000000004</v>
+        <v>70.016000000000005</v>
       </c>
       <c r="P36">
-        <v>75.284000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-164.489</v>
+        <v>25.131</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1373.682</v>
+        <v>237.77799999999999</v>
       </c>
       <c r="U36">
-        <v>423.5</v>
+        <v>122.182</v>
       </c>
       <c r="V36">
-        <v>177.35400000000001</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-95.619</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="Y36">
-        <v>59.14</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-195.72800000000001</v>
+        <v>6.7389999999999999</v>
       </c>
       <c r="AA36">
-        <v>147.142</v>
+        <v>4.5449999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>102.524</v>
+        <v>-49.942</v>
       </c>
       <c r="D37">
-        <v>607.34100000000001</v>
+        <v>79.269000000000005</v>
       </c>
       <c r="E37">
-        <v>531.81600000000003</v>
+        <v>55.034999999999997</v>
       </c>
       <c r="F37">
-        <v>437.55399999999997</v>
+        <v>60.901000000000003</v>
       </c>
       <c r="G37">
-        <v>1505.579</v>
+        <v>237.53800000000001</v>
       </c>
       <c r="H37">
-        <v>2350.38</v>
+        <v>330.78399999999999</v>
       </c>
       <c r="I37">
-        <v>63.3</v>
+        <v>7.4980000000000002</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3797,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>870.14400000000001</v>
+        <v>72.902000000000001</v>
       </c>
       <c r="O37">
-        <v>1044.8309999999999</v>
+        <v>73.103999999999999</v>
       </c>
       <c r="P37">
-        <v>57.070999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>66.872</v>
+        <v>13.779</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1305.549</v>
+        <v>257.68</v>
       </c>
       <c r="U37">
-        <v>490.36200000000002</v>
+        <v>135.96100000000001</v>
       </c>
       <c r="V37">
-        <v>234.53200000000001</v>
+        <v>10.792999999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-194.78200000000001</v>
+        <v>2.1259999999999999</v>
       </c>
       <c r="Y37">
-        <v>43.365000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>50.219000000000001</v>
+        <v>1.915</v>
       </c>
       <c r="AA37">
-        <v>102.524</v>
+        <v>-49.942</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>121.262</v>
+        <v>11.492000000000001</v>
       </c>
       <c r="D38">
-        <v>649.78700000000003</v>
+        <v>86.616</v>
       </c>
       <c r="E38">
-        <v>550.29100000000005</v>
+        <v>54.536999999999999</v>
       </c>
       <c r="F38">
-        <v>471.95800000000003</v>
+        <v>69.971000000000004</v>
       </c>
       <c r="G38">
-        <v>1633.4190000000001</v>
+        <v>261.29899999999998</v>
       </c>
       <c r="H38">
-        <v>2500.7020000000002</v>
+        <v>355.24</v>
       </c>
       <c r="I38">
-        <v>87.25</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3880,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>970.97</v>
+        <v>81.242999999999995</v>
       </c>
       <c r="O38">
-        <v>1154.5329999999999</v>
+        <v>82.203999999999994</v>
       </c>
       <c r="P38">
-        <v>59.2</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>60.069000000000003</v>
+        <v>30.526</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>14530</v>
+        <v>1895</v>
       </c>
       <c r="T38">
-        <v>1346.1690000000001</v>
+        <v>273.036</v>
       </c>
       <c r="U38">
-        <v>550.42499999999995</v>
+        <v>166.48699999999999</v>
       </c>
       <c r="V38">
-        <v>218.17699999999999</v>
+        <v>34.259</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-102.377</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="Y38">
-        <v>43.463000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-25.553999999999998</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>121.262</v>
+        <v>11.492000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1518.1310000000001</v>
+        <v>14.93</v>
       </c>
       <c r="D39">
-        <v>550.96299999999997</v>
+        <v>90.09</v>
       </c>
       <c r="E39">
-        <v>533.00400000000002</v>
+        <v>58.801000000000002</v>
       </c>
       <c r="F39">
-        <v>394.35599999999999</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="G39">
-        <v>1576.5250000000001</v>
+        <v>284.61</v>
       </c>
       <c r="H39">
-        <v>3964.84</v>
+        <v>373.55200000000002</v>
       </c>
       <c r="I39">
-        <v>72.69</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3963,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>910.68600000000004</v>
+        <v>76.25</v>
       </c>
       <c r="O39">
-        <v>1111.8510000000001</v>
+        <v>77.195999999999998</v>
       </c>
       <c r="P39">
-        <v>73.97</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>240.255</v>
+        <v>23.92</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2852.989</v>
+        <v>296.35599999999999</v>
       </c>
       <c r="U39">
-        <v>790.69600000000003</v>
+        <v>190.40700000000001</v>
       </c>
       <c r="V39">
-        <v>9.7840000000000007</v>
+        <v>18.645</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-34.732999999999997</v>
+        <v>5.2610000000000001</v>
       </c>
       <c r="Y39">
-        <v>53.744999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>316.11700000000002</v>
+        <v>4.9880000000000004</v>
       </c>
       <c r="AA39">
-        <v>1518.1310000000001</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-40.601999999999997</v>
+        <v>32.603000000000002</v>
       </c>
       <c r="D40">
-        <v>352.31400000000002</v>
+        <v>108.196</v>
       </c>
       <c r="E40">
-        <v>473.31400000000002</v>
+        <v>62.93</v>
       </c>
       <c r="F40">
-        <v>224.328</v>
+        <v>87.018000000000001</v>
       </c>
       <c r="G40">
-        <v>1149.2439999999999</v>
+        <v>331.09699999999998</v>
       </c>
       <c r="H40">
-        <v>4025.857</v>
+        <v>408.69200000000001</v>
       </c>
       <c r="I40">
-        <v>94.986999999999995</v>
+        <v>5.3159999999999998</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +4046,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>941.59199999999998</v>
+        <v>73.807000000000002</v>
       </c>
       <c r="O40">
-        <v>1180.8119999999999</v>
+        <v>74.739000000000004</v>
       </c>
       <c r="P40">
-        <v>71.478999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>-386.44499999999999</v>
+        <v>45.393999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2845.0450000000001</v>
+        <v>333.95299999999997</v>
       </c>
       <c r="U40">
-        <v>404.35899999999998</v>
+        <v>235.80099999999999</v>
       </c>
       <c r="V40">
-        <v>59.9</v>
+        <v>42.595999999999997</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-1.643</v>
+        <v>1.103</v>
       </c>
       <c r="Y40">
-        <v>50.619</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>5.992</v>
       </c>
       <c r="AA40">
-        <v>-40.601999999999997</v>
+        <v>32.603000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>139.37100000000001</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="D41">
-        <v>734.14400000000001</v>
+        <v>95.947000000000003</v>
       </c>
       <c r="E41">
-        <v>626.04600000000005</v>
+        <v>63.811</v>
       </c>
       <c r="F41">
-        <v>534.08799999999997</v>
+        <v>74.933000000000007</v>
       </c>
       <c r="G41">
-        <v>1473.2470000000001</v>
+        <v>357.94200000000001</v>
       </c>
       <c r="H41">
-        <v>4415.0910000000003</v>
+        <v>445.23500000000001</v>
       </c>
       <c r="I41">
-        <v>119.184</v>
+        <v>5.8259999999999996</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1121.7940000000001</v>
+        <v>80.036000000000001</v>
       </c>
       <c r="O41">
-        <v>1381.62</v>
+        <v>85.832999999999998</v>
       </c>
       <c r="P41">
-        <v>86.191999999999993</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>211.178</v>
+        <v>29.123000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3033.471</v>
+        <v>359.40199999999999</v>
       </c>
       <c r="U41">
-        <v>615.53200000000004</v>
+        <v>264.92399999999998</v>
       </c>
       <c r="V41">
-        <v>211.072</v>
+        <v>35.762999999999998</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>8.016</v>
+        <v>3.6539999999999999</v>
       </c>
       <c r="Y41">
-        <v>65.518000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-6.2480000000000002</v>
       </c>
       <c r="AA41">
-        <v>139.37100000000001</v>
+        <v>16.815000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>9.9049999999999994</v>
+      </c>
+      <c r="D42">
+        <v>92.893000000000001</v>
+      </c>
+      <c r="E42">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="F42">
+        <v>71.756</v>
+      </c>
+      <c r="G42">
+        <v>388.61099999999999</v>
+      </c>
+      <c r="H42">
+        <v>476.94299999999998</v>
+      </c>
+      <c r="I42">
+        <v>7.7679999999999998</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>92.974000000000004</v>
+      </c>
+      <c r="O42">
+        <v>99.195999999999998</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>29.74</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2097</v>
+      </c>
+      <c r="T42">
+        <v>377.74700000000001</v>
+      </c>
+      <c r="U42">
+        <v>294.66399999999999</v>
+      </c>
+      <c r="V42">
+        <v>32.524999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>4.6890000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-2.476</v>
+      </c>
+      <c r="AA42">
+        <v>9.9049999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>15.840999999999999</v>
+      </c>
+      <c r="D43">
+        <v>104.85599999999999</v>
+      </c>
+      <c r="E43">
+        <v>73.903999999999996</v>
+      </c>
+      <c r="F43">
+        <v>82.225999999999999</v>
+      </c>
+      <c r="G43">
+        <v>417.94099999999997</v>
+      </c>
+      <c r="H43">
+        <v>496.98200000000003</v>
+      </c>
+      <c r="I43">
+        <v>6.5940000000000003</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>87.994</v>
+      </c>
+      <c r="O43">
+        <v>94.876999999999995</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>13.944000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>402.10500000000002</v>
+      </c>
+      <c r="U43">
+        <v>308.608</v>
+      </c>
+      <c r="V43">
+        <v>17.248000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>15.840999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>11.162000000000001</v>
+      </c>
+      <c r="D44">
+        <v>120.086</v>
+      </c>
+      <c r="E44">
+        <v>82.13</v>
+      </c>
+      <c r="F44">
+        <v>91.137</v>
+      </c>
+      <c r="G44">
+        <v>286.57299999999998</v>
+      </c>
+      <c r="H44">
+        <v>547.04899999999998</v>
+      </c>
+      <c r="I44">
+        <v>10.407</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>109.45099999999999</v>
+      </c>
+      <c r="O44">
+        <v>117.267</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-140.001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>429.78199999999998</v>
+      </c>
+      <c r="U44">
+        <v>168.607</v>
+      </c>
+      <c r="V44">
+        <v>29.696000000000002</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>11.379</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>11.162000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>19.263999999999999</v>
+      </c>
+      <c r="D45">
+        <v>125.89400000000001</v>
+      </c>
+      <c r="E45">
+        <v>86.647999999999996</v>
+      </c>
+      <c r="F45">
+        <v>92.37</v>
+      </c>
+      <c r="G45">
+        <v>327.13400000000001</v>
+      </c>
+      <c r="H45">
+        <v>585.91999999999996</v>
+      </c>
+      <c r="I45">
+        <v>14.138</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>120.187</v>
+      </c>
+      <c r="O45">
+        <v>129.04400000000001</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>33.622</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>456.87599999999998</v>
+      </c>
+      <c r="U45">
+        <v>202.22900000000001</v>
+      </c>
+      <c r="V45">
+        <v>35.546999999999997</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>9.2609999999999992</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>19.263999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>20.449000000000002</v>
+      </c>
+      <c r="D46">
+        <v>128.905</v>
+      </c>
+      <c r="E46">
+        <v>91.537000000000006</v>
+      </c>
+      <c r="F46">
+        <v>96.75</v>
+      </c>
+      <c r="G46">
+        <v>384.81599999999997</v>
+      </c>
+      <c r="H46">
+        <v>649.26400000000001</v>
+      </c>
+      <c r="I46">
+        <v>19.265000000000001</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>148.11699999999999</v>
+      </c>
+      <c r="O46">
+        <v>158.483</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>38.445999999999998</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2593</v>
+      </c>
+      <c r="T46">
+        <v>490.78100000000001</v>
+      </c>
+      <c r="U46">
+        <v>240.67500000000001</v>
+      </c>
+      <c r="V46">
+        <v>47.978000000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>20.449000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>20.984000000000002</v>
+      </c>
+      <c r="D47">
+        <v>135.07900000000001</v>
+      </c>
+      <c r="E47">
+        <v>94.441000000000003</v>
+      </c>
+      <c r="F47">
+        <v>100.76</v>
+      </c>
+      <c r="G47">
+        <v>385.49599999999998</v>
+      </c>
+      <c r="H47">
+        <v>670.43600000000004</v>
+      </c>
+      <c r="I47">
+        <v>14.64</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>135.828</v>
+      </c>
+      <c r="O47">
+        <v>147.41399999999999</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-16.314</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>523.02200000000005</v>
+      </c>
+      <c r="U47">
+        <v>224.36099999999999</v>
+      </c>
+      <c r="V47">
+        <v>7.3810000000000002</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>14.291</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-25.439</v>
+      </c>
+      <c r="AA47">
+        <v>20.984000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>28.492000000000001</v>
+      </c>
+      <c r="D48">
+        <v>145.626</v>
+      </c>
+      <c r="E48">
+        <v>102.149</v>
+      </c>
+      <c r="F48">
+        <v>108.8</v>
+      </c>
+      <c r="G48">
+        <v>435.13499999999999</v>
+      </c>
+      <c r="H48">
+        <v>744.16300000000001</v>
+      </c>
+      <c r="I48">
+        <v>15.226000000000001</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>143.83600000000001</v>
+      </c>
+      <c r="O48">
+        <v>157.86799999999999</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>38.438000000000002</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>586.29499999999996</v>
+      </c>
+      <c r="U48">
+        <v>262.79899999999998</v>
+      </c>
+      <c r="V48">
+        <v>35.374000000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>21.992000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-8.4160000000000004</v>
+      </c>
+      <c r="AA48">
+        <v>28.492000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="D49">
+        <v>136.49600000000001</v>
+      </c>
+      <c r="E49">
+        <v>105.902</v>
+      </c>
+      <c r="F49">
+        <v>100.35</v>
+      </c>
+      <c r="G49">
+        <v>484.24599999999998</v>
+      </c>
+      <c r="H49">
+        <v>768.16399999999999</v>
+      </c>
+      <c r="I49">
+        <v>14.414999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>151.68799999999999</v>
+      </c>
+      <c r="O49">
+        <v>165.999</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>42.107999999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>602.16499999999996</v>
+      </c>
+      <c r="U49">
+        <v>304.90699999999998</v>
+      </c>
+      <c r="V49">
+        <v>40.265000000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>10.536</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-2.6440000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>-0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>9.5589999999999993</v>
+      </c>
+      <c r="D50">
+        <v>142.84</v>
+      </c>
+      <c r="E50">
+        <v>98.992000000000004</v>
+      </c>
+      <c r="F50">
+        <v>107.27800000000001</v>
+      </c>
+      <c r="G50">
+        <v>485.79300000000001</v>
+      </c>
+      <c r="H50">
+        <v>756.31200000000001</v>
+      </c>
+      <c r="I50">
+        <v>19.548999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>155.77099999999999</v>
+      </c>
+      <c r="O50">
+        <v>174.995</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3176</v>
+      </c>
+      <c r="T50">
+        <v>581.31700000000001</v>
+      </c>
+      <c r="U50">
+        <v>306.38600000000002</v>
+      </c>
+      <c r="V50">
+        <v>50.758000000000003</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-36.613999999999997</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-5.8140000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>9.5589999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-41.982999999999997</v>
+      </c>
+      <c r="D51">
+        <v>150.08000000000001</v>
+      </c>
+      <c r="E51">
+        <v>108.672</v>
+      </c>
+      <c r="F51">
+        <v>112.849</v>
+      </c>
+      <c r="G51">
+        <v>527.33100000000002</v>
+      </c>
+      <c r="H51">
+        <v>726.245</v>
+      </c>
+      <c r="I51">
+        <v>19.748000000000001</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>143.85499999999999</v>
+      </c>
+      <c r="O51">
+        <v>165.12700000000001</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>22.359000000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>561.11800000000005</v>
+      </c>
+      <c r="U51">
+        <v>328.745</v>
+      </c>
+      <c r="V51">
+        <v>10.417999999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>15.423</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>-41.982999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>29.32</v>
+      </c>
+      <c r="D52">
+        <v>162.02799999999999</v>
+      </c>
+      <c r="E52">
+        <v>112.367</v>
+      </c>
+      <c r="F52">
+        <v>123.691</v>
+      </c>
+      <c r="G52">
+        <v>442.09300000000002</v>
+      </c>
+      <c r="H52">
+        <v>703.89400000000001</v>
+      </c>
+      <c r="I52">
+        <v>21.556000000000001</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>160.654</v>
+      </c>
+      <c r="O52">
+        <v>183.696</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-164.24799999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>520.19799999999998</v>
+      </c>
+      <c r="U52">
+        <v>164.49700000000001</v>
+      </c>
+      <c r="V52">
+        <v>53.308</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-77.319000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-128.72999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>29.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>34.536999999999999</v>
+      </c>
+      <c r="D53">
+        <v>164.506</v>
+      </c>
+      <c r="E53">
+        <v>109.179</v>
+      </c>
+      <c r="F53">
+        <v>125.09</v>
+      </c>
+      <c r="G53">
+        <v>482.25900000000001</v>
+      </c>
+      <c r="H53">
+        <v>759.20600000000002</v>
+      </c>
+      <c r="I53">
+        <v>19.157</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>163.268</v>
+      </c>
+      <c r="O53">
+        <v>183.52199999999999</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>575.68399999999997</v>
+      </c>
+      <c r="U53">
+        <v>175.839</v>
+      </c>
+      <c r="V53">
+        <v>55.137999999999998</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>12.994</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-47.171999999999997</v>
+      </c>
+      <c r="AA53">
+        <v>34.536999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>42.420999999999999</v>
+      </c>
+      <c r="D54">
+        <v>176.49199999999999</v>
+      </c>
+      <c r="E54">
+        <v>113.25</v>
+      </c>
+      <c r="F54">
+        <v>136.476</v>
+      </c>
+      <c r="G54">
+        <v>544.67600000000004</v>
+      </c>
+      <c r="H54">
+        <v>832.14700000000005</v>
+      </c>
+      <c r="I54">
+        <v>17.718</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>175.33799999999999</v>
+      </c>
+      <c r="O54">
+        <v>198.17699999999999</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>67.114000000000004</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3420</v>
+      </c>
+      <c r="T54">
+        <v>633.97</v>
+      </c>
+      <c r="U54">
+        <v>242.953</v>
+      </c>
+      <c r="V54">
+        <v>67.111999999999995</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>10.731</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-6.4409999999999998</v>
+      </c>
+      <c r="AA54">
+        <v>42.420999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>32.444000000000003</v>
+      </c>
+      <c r="D55">
+        <v>180.64599999999999</v>
+      </c>
+      <c r="E55">
+        <v>126.18300000000001</v>
+      </c>
+      <c r="F55">
+        <v>137.251</v>
+      </c>
+      <c r="G55">
+        <v>552.17700000000002</v>
+      </c>
+      <c r="H55">
+        <v>885.64099999999996</v>
+      </c>
+      <c r="I55">
+        <v>18.506</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>170.85499999999999</v>
+      </c>
+      <c r="O55">
+        <v>188.88800000000001</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-60.186999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>696.75300000000004</v>
+      </c>
+      <c r="U55">
+        <v>182.76599999999999</v>
+      </c>
+      <c r="V55">
+        <v>17.992999999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>21.061</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-94.218000000000004</v>
+      </c>
+      <c r="AA55">
+        <v>32.444000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>35.6</v>
+      </c>
+      <c r="D56">
+        <v>192.53100000000001</v>
+      </c>
+      <c r="E56">
+        <v>131.02799999999999</v>
+      </c>
+      <c r="F56">
+        <v>145.476</v>
+      </c>
+      <c r="G56">
+        <v>554.51199999999994</v>
+      </c>
+      <c r="H56">
+        <v>885.43299999999999</v>
+      </c>
+      <c r="I56">
+        <v>20.939</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>187.113</v>
+      </c>
+      <c r="O56">
+        <v>209.637</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-15.295</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>675.79600000000005</v>
+      </c>
+      <c r="U56">
+        <v>167.471</v>
+      </c>
+      <c r="V56">
+        <v>69.73</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-66.927999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-13.272</v>
+      </c>
+      <c r="AA56">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>38.247</v>
+      </c>
+      <c r="D57">
+        <v>189.876</v>
+      </c>
+      <c r="E57">
+        <v>130.047</v>
+      </c>
+      <c r="F57">
+        <v>145.054</v>
+      </c>
+      <c r="G57">
+        <v>615.67200000000003</v>
+      </c>
+      <c r="H57">
+        <v>948.28899999999999</v>
+      </c>
+      <c r="I57">
+        <v>24.516999999999999</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>198.56</v>
+      </c>
+      <c r="O57">
+        <v>225.833</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>13.205</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>722.45600000000002</v>
+      </c>
+      <c r="U57">
+        <v>180.67599999999999</v>
+      </c>
+      <c r="V57">
+        <v>67.570999999999998</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-1.0509999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-46.744</v>
+      </c>
+      <c r="AA57">
+        <v>38.247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>39.540999999999997</v>
+      </c>
+      <c r="D58">
+        <v>198.6</v>
+      </c>
+      <c r="E58">
+        <v>129.751</v>
+      </c>
+      <c r="F58">
+        <v>150.66200000000001</v>
+      </c>
+      <c r="G58">
+        <v>657.16</v>
+      </c>
+      <c r="H58">
+        <v>987.99699999999996</v>
+      </c>
+      <c r="I58">
+        <v>23.247</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>201.81100000000001</v>
+      </c>
+      <c r="O58">
+        <v>235.226</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>19.195</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3580</v>
+      </c>
+      <c r="T58">
+        <v>752.77099999999996</v>
+      </c>
+      <c r="U58">
+        <v>199.87100000000001</v>
+      </c>
+      <c r="V58">
+        <v>71.605000000000004</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-19.501999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-23.117999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>39.540999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>36.177</v>
+      </c>
+      <c r="D59">
+        <v>198.08600000000001</v>
+      </c>
+      <c r="E59">
+        <v>138.15899999999999</v>
+      </c>
+      <c r="F59">
+        <v>151.09</v>
+      </c>
+      <c r="G59">
+        <v>657.31200000000001</v>
+      </c>
+      <c r="H59">
+        <v>1028.405</v>
+      </c>
+      <c r="I59">
+        <v>24.995999999999999</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>200.57499999999999</v>
+      </c>
+      <c r="O59">
+        <v>234.87100000000001</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-9.8930000000000007</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>793.53399999999999</v>
+      </c>
+      <c r="U59">
+        <v>189.97800000000001</v>
+      </c>
+      <c r="V59">
+        <v>35.645000000000003</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-7.0970000000000004</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-21.094999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>36.177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>31.35</v>
+      </c>
+      <c r="D60">
+        <v>209.488</v>
+      </c>
+      <c r="E60">
+        <v>146.46600000000001</v>
+      </c>
+      <c r="F60">
+        <v>158.63399999999999</v>
+      </c>
+      <c r="G60">
+        <v>657.90599999999995</v>
+      </c>
+      <c r="H60">
+        <v>1028.5809999999999</v>
+      </c>
+      <c r="I60">
+        <v>29.513000000000002</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>222.92500000000001</v>
+      </c>
+      <c r="O60">
+        <v>258.77999999999997</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-28.225000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>769.80100000000004</v>
+      </c>
+      <c r="U60">
+        <v>161.75299999999999</v>
+      </c>
+      <c r="V60">
+        <v>62.94</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-67.83</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-13.101000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>27.616</v>
+      </c>
+      <c r="D61">
+        <v>207.636</v>
+      </c>
+      <c r="E61">
+        <v>148.39500000000001</v>
+      </c>
+      <c r="F61">
+        <v>157.57599999999999</v>
+      </c>
+      <c r="G61">
+        <v>711.73299999999995</v>
+      </c>
+      <c r="H61">
+        <v>1079.5619999999999</v>
+      </c>
+      <c r="I61">
+        <v>32.598999999999997</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>244.511</v>
+      </c>
+      <c r="O61">
+        <v>281.303</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>12.287000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>798.25900000000001</v>
+      </c>
+      <c r="U61">
+        <v>174.04</v>
+      </c>
+      <c r="V61">
+        <v>60.057000000000002</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-14.028</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-21.812000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>27.616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>48.877000000000002</v>
+      </c>
+      <c r="D62">
+        <v>230.27600000000001</v>
+      </c>
+      <c r="E62">
+        <v>158.55000000000001</v>
+      </c>
+      <c r="F62">
+        <v>172.81</v>
+      </c>
+      <c r="G62">
+        <v>732.01</v>
+      </c>
+      <c r="H62">
+        <v>1158.633</v>
+      </c>
+      <c r="I62">
+        <v>34.353999999999999</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>271.67200000000003</v>
+      </c>
+      <c r="O62">
+        <v>310.70699999999999</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-6.3259999999999996</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>4375</v>
+      </c>
+      <c r="T62">
+        <v>847.92600000000004</v>
+      </c>
+      <c r="U62">
+        <v>167.714</v>
+      </c>
+      <c r="V62">
+        <v>79.355000000000004</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-11.831</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-56.948</v>
+      </c>
+      <c r="AA62">
+        <v>48.877000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>40.545999999999999</v>
+      </c>
+      <c r="D63">
+        <v>238.72</v>
+      </c>
+      <c r="E63">
+        <v>178</v>
+      </c>
+      <c r="F63">
+        <v>180.62700000000001</v>
+      </c>
+      <c r="G63">
+        <v>783.00300000000004</v>
+      </c>
+      <c r="H63">
+        <v>1207.56</v>
+      </c>
+      <c r="I63">
+        <v>36.258000000000003</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>274.75</v>
+      </c>
+      <c r="O63">
+        <v>315.52999999999997</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-13.295999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>892.03</v>
+      </c>
+      <c r="U63">
+        <v>154.41800000000001</v>
+      </c>
+      <c r="V63">
+        <v>30.68</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-9.1059999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-15.109</v>
+      </c>
+      <c r="AA63">
+        <v>40.545999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>50.148000000000003</v>
+      </c>
+      <c r="D64">
+        <v>269.36200000000002</v>
+      </c>
+      <c r="E64">
+        <v>192.66</v>
+      </c>
+      <c r="F64">
+        <v>205.21600000000001</v>
+      </c>
+      <c r="G64">
+        <v>825.40700000000004</v>
+      </c>
+      <c r="H64">
+        <v>1251.2729999999999</v>
+      </c>
+      <c r="I64">
+        <v>30.927</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>298.98899999999998</v>
+      </c>
+      <c r="O64">
+        <v>341.41500000000002</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>13.288</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>909.85799999999995</v>
+      </c>
+      <c r="U64">
+        <v>167.70599999999999</v>
+      </c>
+      <c r="V64">
+        <v>76.167000000000002</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-46.402000000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>8.6620000000000008</v>
+      </c>
+      <c r="AA64">
+        <v>50.148000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>51.366999999999997</v>
+      </c>
+      <c r="D65">
+        <v>278.589</v>
+      </c>
+      <c r="E65">
+        <v>244.99199999999999</v>
+      </c>
+      <c r="F65">
+        <v>209.202</v>
+      </c>
+      <c r="G65">
+        <v>911.76800000000003</v>
+      </c>
+      <c r="H65">
+        <v>1358.893</v>
+      </c>
+      <c r="I65">
+        <v>33.103999999999999</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>343.05099999999999</v>
+      </c>
+      <c r="O65">
+        <v>386.58300000000003</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>252.24199999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>972.31</v>
+      </c>
+      <c r="U65">
+        <v>419.94799999999998</v>
+      </c>
+      <c r="V65">
+        <v>59.826999999999998</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-2.1110000000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>213.70500000000001</v>
+      </c>
+      <c r="AA65">
+        <v>51.366999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>47.621000000000002</v>
+      </c>
+      <c r="D66">
+        <v>293.20299999999997</v>
+      </c>
+      <c r="E66">
+        <v>247.41499999999999</v>
+      </c>
+      <c r="F66">
+        <v>220.249</v>
+      </c>
+      <c r="G66">
+        <v>952.97799999999995</v>
+      </c>
+      <c r="H66">
+        <v>1396.1510000000001</v>
+      </c>
+      <c r="I66">
+        <v>28.596</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>354.33499999999998</v>
+      </c>
+      <c r="O66">
+        <v>400.762</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-30.672999999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>6060</v>
+      </c>
+      <c r="T66">
+        <v>995.38900000000001</v>
+      </c>
+      <c r="U66">
+        <v>389.27499999999998</v>
+      </c>
+      <c r="V66">
+        <v>80.98</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-37.905000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-55.622999999999998</v>
+      </c>
+      <c r="AA66">
+        <v>47.621000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>69.42</v>
+      </c>
+      <c r="D67">
+        <v>310.34100000000001</v>
+      </c>
+      <c r="E67">
+        <v>267.12799999999999</v>
+      </c>
+      <c r="F67">
+        <v>235.625</v>
+      </c>
+      <c r="G67">
+        <v>918.16700000000003</v>
+      </c>
+      <c r="H67">
+        <v>1459.2929999999999</v>
+      </c>
+      <c r="I67">
+        <v>37.027999999999999</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>365.55399999999997</v>
+      </c>
+      <c r="O67">
+        <v>414.41800000000001</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>-131.41200000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1044.875</v>
+      </c>
+      <c r="U67">
+        <v>261.02699999999999</v>
+      </c>
+      <c r="V67">
+        <v>47.621000000000002</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-33.000999999999998</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-71.09</v>
+      </c>
+      <c r="AA67">
+        <v>69.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>69.179000000000002</v>
+      </c>
+      <c r="D68">
+        <v>356.48200000000003</v>
+      </c>
+      <c r="E68">
+        <v>291.69400000000002</v>
+      </c>
+      <c r="F68">
+        <v>270.91699999999997</v>
+      </c>
+      <c r="G68">
+        <v>1003.222</v>
+      </c>
+      <c r="H68">
+        <v>1551.1869999999999</v>
+      </c>
+      <c r="I68">
+        <v>45.953000000000003</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>424.79599999999999</v>
+      </c>
+      <c r="O68">
+        <v>472.899</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>97.182000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1078.288</v>
+      </c>
+      <c r="U68">
+        <v>358.18200000000002</v>
+      </c>
+      <c r="V68">
+        <v>110.467</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-51.238999999999997</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>64.31</v>
+      </c>
+      <c r="AA68">
+        <v>69.179000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>82.555000000000007</v>
+      </c>
+      <c r="D69">
+        <v>385.267</v>
+      </c>
+      <c r="E69">
+        <v>321.32799999999997</v>
+      </c>
+      <c r="F69">
+        <v>292.488</v>
+      </c>
+      <c r="G69">
+        <v>1101.0029999999999</v>
+      </c>
+      <c r="H69">
+        <v>1697.623</v>
+      </c>
+      <c r="I69">
+        <v>45.942</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>461.36900000000003</v>
+      </c>
+      <c r="O69">
+        <v>515.66499999999996</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1181.9580000000001</v>
+      </c>
+      <c r="U69">
+        <v>362.613</v>
+      </c>
+      <c r="V69">
+        <v>118.125</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-70.134</v>
+      </c>
+      <c r="AA69">
+        <v>82.555000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>10.263999999999999</v>
+      </c>
+      <c r="D70">
+        <v>421.32299999999998</v>
+      </c>
+      <c r="E70">
+        <v>324.18900000000002</v>
+      </c>
+      <c r="F70">
+        <v>317.91699999999997</v>
+      </c>
+      <c r="G70">
+        <v>1158.367</v>
+      </c>
+      <c r="H70">
+        <v>1784.009</v>
+      </c>
+      <c r="I70">
+        <v>36.776000000000003</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>500.05099999999999</v>
+      </c>
+      <c r="O70">
+        <v>629.721</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>86.906999999999996</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>8715</v>
+      </c>
+      <c r="T70">
+        <v>1154.288</v>
+      </c>
+      <c r="U70">
+        <v>449.51100000000002</v>
+      </c>
+      <c r="V70">
+        <v>162.32599999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-56.463999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>62.682000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>10.263999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>95.866</v>
+      </c>
+      <c r="D71">
+        <v>436.92399999999998</v>
+      </c>
+      <c r="E71">
+        <v>361.459</v>
+      </c>
+      <c r="F71">
+        <v>327.40800000000002</v>
+      </c>
+      <c r="G71">
+        <v>1168.7760000000001</v>
+      </c>
+      <c r="H71">
+        <v>1782.731</v>
+      </c>
+      <c r="I71">
+        <v>41.881</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>517.98500000000001</v>
+      </c>
+      <c r="O71">
+        <v>655.27099999999996</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>48.494</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1127.46</v>
+      </c>
+      <c r="U71">
+        <v>498.00299999999999</v>
+      </c>
+      <c r="V71">
+        <v>77.331999999999994</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-139.822</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>136.38499999999999</v>
+      </c>
+      <c r="AA71">
+        <v>95.866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>106.105</v>
+      </c>
+      <c r="D72">
+        <v>490.25900000000001</v>
+      </c>
+      <c r="E72">
+        <v>374.37099999999998</v>
+      </c>
+      <c r="F72">
+        <v>365.58199999999999</v>
+      </c>
+      <c r="G72">
+        <v>1260.999</v>
+      </c>
+      <c r="H72">
+        <v>1916.5889999999999</v>
+      </c>
+      <c r="I72">
+        <v>48.744</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>566.64599999999996</v>
+      </c>
+      <c r="O72">
+        <v>697.63</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>49.962000000000003</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1218.9590000000001</v>
+      </c>
+      <c r="U72">
+        <v>547.99300000000005</v>
+      </c>
+      <c r="V72">
+        <v>139.78899999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-30.922999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>106.105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>100.872</v>
+      </c>
+      <c r="D73">
+        <v>505.28899999999999</v>
+      </c>
+      <c r="E73">
+        <v>420.27600000000001</v>
+      </c>
+      <c r="F73">
+        <v>371.78100000000001</v>
+      </c>
+      <c r="G73">
+        <v>1224.182</v>
+      </c>
+      <c r="H73">
+        <v>1928.405</v>
+      </c>
+      <c r="I73">
+        <v>43.064999999999998</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>618.20899999999995</v>
+      </c>
+      <c r="O73">
+        <v>735.42200000000003</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>-127.13200000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1192.9829999999999</v>
+      </c>
+      <c r="U73">
+        <v>420.86</v>
+      </c>
+      <c r="V73">
+        <v>96.265000000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-144.40600000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-24.222000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>100.872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>97.391999999999996</v>
+      </c>
+      <c r="D74">
+        <v>534.02</v>
+      </c>
+      <c r="E74">
+        <v>439.00900000000001</v>
+      </c>
+      <c r="F74">
+        <v>383.096</v>
+      </c>
+      <c r="G74">
+        <v>1302.479</v>
+      </c>
+      <c r="H74">
+        <v>2052.4580000000001</v>
+      </c>
+      <c r="I74">
+        <v>64.256</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>692.07299999999998</v>
+      </c>
+      <c r="O74">
+        <v>799.56700000000001</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>216.11699999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>11660</v>
+      </c>
+      <c r="T74">
+        <v>1252.8910000000001</v>
+      </c>
+      <c r="U74">
+        <v>636.899</v>
+      </c>
+      <c r="V74">
+        <v>241.29499999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-54.283000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>85.066000000000003</v>
+      </c>
+      <c r="AA74">
+        <v>97.391999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>71.847999999999999</v>
+      </c>
+      <c r="D75">
+        <v>548.971</v>
+      </c>
+      <c r="E75">
+        <v>479.28100000000001</v>
+      </c>
+      <c r="F75">
+        <v>402.096</v>
+      </c>
+      <c r="G75">
+        <v>1439.1130000000001</v>
+      </c>
+      <c r="H75">
+        <v>2234.4299999999998</v>
+      </c>
+      <c r="I75">
+        <v>62.512</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>804.88400000000001</v>
+      </c>
+      <c r="O75">
+        <v>978.726</v>
+      </c>
+      <c r="P75">
+        <v>130.999</v>
+      </c>
+      <c r="Q75">
+        <v>-48.884</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1255.704</v>
+      </c>
+      <c r="U75">
+        <v>588.00099999999998</v>
+      </c>
+      <c r="V75">
+        <v>117.20699999999999</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-92.762</v>
+      </c>
+      <c r="Y75">
+        <v>59.307000000000002</v>
+      </c>
+      <c r="Z75">
+        <v>-36.79</v>
+      </c>
+      <c r="AA75">
+        <v>71.847999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>147.142</v>
+      </c>
+      <c r="D76">
+        <v>600.697</v>
+      </c>
+      <c r="E76">
+        <v>520.09400000000005</v>
+      </c>
+      <c r="F76">
+        <v>432.28899999999999</v>
+      </c>
+      <c r="G76">
+        <v>1457.374</v>
+      </c>
+      <c r="H76">
+        <v>2346.0169999999998</v>
+      </c>
+      <c r="I76">
+        <v>61.95</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>789.04600000000005</v>
+      </c>
+      <c r="O76">
+        <v>972.33500000000004</v>
+      </c>
+      <c r="P76">
+        <v>75.284000000000006</v>
+      </c>
+      <c r="Q76">
+        <v>-164.489</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1373.682</v>
+      </c>
+      <c r="U76">
+        <v>423.5</v>
+      </c>
+      <c r="V76">
+        <v>177.35400000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-95.619</v>
+      </c>
+      <c r="Y76">
+        <v>59.14</v>
+      </c>
+      <c r="Z76">
+        <v>-195.72800000000001</v>
+      </c>
+      <c r="AA76">
+        <v>147.142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>102.524</v>
+      </c>
+      <c r="D77">
+        <v>607.34100000000001</v>
+      </c>
+      <c r="E77">
+        <v>531.81600000000003</v>
+      </c>
+      <c r="F77">
+        <v>437.55399999999997</v>
+      </c>
+      <c r="G77">
+        <v>1505.579</v>
+      </c>
+      <c r="H77">
+        <v>2350.38</v>
+      </c>
+      <c r="I77">
+        <v>63.3</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>870.14400000000001</v>
+      </c>
+      <c r="O77">
+        <v>1044.8309999999999</v>
+      </c>
+      <c r="P77">
+        <v>57.070999999999998</v>
+      </c>
+      <c r="Q77">
+        <v>66.872</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1305.549</v>
+      </c>
+      <c r="U77">
+        <v>490.36200000000002</v>
+      </c>
+      <c r="V77">
+        <v>234.53200000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-194.78200000000001</v>
+      </c>
+      <c r="Y77">
+        <v>43.365000000000002</v>
+      </c>
+      <c r="Z77">
+        <v>50.219000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>102.524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>121.262</v>
+      </c>
+      <c r="D78">
+        <v>649.78700000000003</v>
+      </c>
+      <c r="E78">
+        <v>550.29100000000005</v>
+      </c>
+      <c r="F78">
+        <v>471.95800000000003</v>
+      </c>
+      <c r="G78">
+        <v>1633.4190000000001</v>
+      </c>
+      <c r="H78">
+        <v>2500.7020000000002</v>
+      </c>
+      <c r="I78">
+        <v>87.25</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>970.97</v>
+      </c>
+      <c r="O78">
+        <v>1154.5329999999999</v>
+      </c>
+      <c r="P78">
+        <v>59.2</v>
+      </c>
+      <c r="Q78">
+        <v>60.069000000000003</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>14530</v>
+      </c>
+      <c r="T78">
+        <v>1346.1690000000001</v>
+      </c>
+      <c r="U78">
+        <v>550.42499999999995</v>
+      </c>
+      <c r="V78">
+        <v>218.17699999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-102.377</v>
+      </c>
+      <c r="Y78">
+        <v>43.463000000000001</v>
+      </c>
+      <c r="Z78">
+        <v>-25.553999999999998</v>
+      </c>
+      <c r="AA78">
+        <v>121.262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1518.1310000000001</v>
+      </c>
+      <c r="D79">
+        <v>550.96299999999997</v>
+      </c>
+      <c r="E79">
+        <v>533.00400000000002</v>
+      </c>
+      <c r="F79">
+        <v>394.35599999999999</v>
+      </c>
+      <c r="G79">
+        <v>1576.5250000000001</v>
+      </c>
+      <c r="H79">
+        <v>3964.84</v>
+      </c>
+      <c r="I79">
+        <v>72.69</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>910.68600000000004</v>
+      </c>
+      <c r="O79">
+        <v>1111.8510000000001</v>
+      </c>
+      <c r="P79">
+        <v>73.97</v>
+      </c>
+      <c r="Q79">
+        <v>240.255</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2852.989</v>
+      </c>
+      <c r="U79">
+        <v>790.69600000000003</v>
+      </c>
+      <c r="V79">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-34.732999999999997</v>
+      </c>
+      <c r="Y79">
+        <v>53.744999999999997</v>
+      </c>
+      <c r="Z79">
+        <v>316.11700000000002</v>
+      </c>
+      <c r="AA79">
+        <v>1518.1310000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-40.601999999999997</v>
+      </c>
+      <c r="D80">
+        <v>352.31400000000002</v>
+      </c>
+      <c r="E80">
+        <v>473.31400000000002</v>
+      </c>
+      <c r="F80">
+        <v>224.328</v>
+      </c>
+      <c r="G80">
+        <v>1149.2439999999999</v>
+      </c>
+      <c r="H80">
+        <v>4025.857</v>
+      </c>
+      <c r="I80">
+        <v>94.986999999999995</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>941.59199999999998</v>
+      </c>
+      <c r="O80">
+        <v>1180.8119999999999</v>
+      </c>
+      <c r="P80">
+        <v>71.478999999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-386.44499999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2845.0450000000001</v>
+      </c>
+      <c r="U80">
+        <v>404.35899999999998</v>
+      </c>
+      <c r="V80">
+        <v>59.9</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-1.643</v>
+      </c>
+      <c r="Y80">
+        <v>50.619</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-40.601999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>139.37100000000001</v>
+      </c>
+      <c r="D81">
+        <v>734.14400000000001</v>
+      </c>
+      <c r="E81">
+        <v>626.04600000000005</v>
+      </c>
+      <c r="F81">
+        <v>534.08799999999997</v>
+      </c>
+      <c r="G81">
+        <v>1473.2470000000001</v>
+      </c>
+      <c r="H81">
+        <v>4415.0910000000003</v>
+      </c>
+      <c r="I81">
+        <v>119.184</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1121.7940000000001</v>
+      </c>
+      <c r="O81">
+        <v>1381.62</v>
+      </c>
+      <c r="P81">
+        <v>86.191999999999993</v>
+      </c>
+      <c r="Q81">
+        <v>211.178</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3033.471</v>
+      </c>
+      <c r="U81">
+        <v>615.53200000000004</v>
+      </c>
+      <c r="V81">
+        <v>211.072</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>8.016</v>
+      </c>
+      <c r="Y81">
+        <v>65.518000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>139.37100000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>158.988</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>834.52</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>657.70399999999995</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>610.46299999999997</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1849.538</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4829.683</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>142.13200000000001</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1325.6010000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1595.818</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>86.18</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>345.35199999999998</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>18070</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3233.8649999999998</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>960.84299999999996</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>381.41800000000001</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-2.448</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>64.444999999999993</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>158.988</v>
       </c>
     </row>
